--- a/docs/Test/NeuUndKaputt.xlsx
+++ b/docs/Test/NeuUndKaputt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Projekte\ExcelToCsv\docs\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A33B3E-B4A9-47B3-9EF8-573A4B4635E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F88678-43C8-4EB4-9663-5688EDBB1FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54315" yWindow="765" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personalliste" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Name Vorname</t>
   </si>
@@ -94,18 +94,6 @@
   </si>
   <si>
     <t>TESTFIRMA</t>
-  </si>
-  <si>
-    <t>Meier Peter</t>
-  </si>
-  <si>
-    <t>Müller Gerda</t>
-  </si>
-  <si>
-    <t>Schulz Eva</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Geier Pauline</t>
   </si>
   <si>
     <t>e</t>
@@ -1072,7 +1060,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,9 +1184,7 @@
       <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="18">
         <v>-1</v>
       </c>
@@ -1231,14 +1217,12 @@
       <c r="A6" s="1">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>9</v>
@@ -1266,23 +1250,21 @@
       <c r="A7" s="1">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
         <v>7.3</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1">
         <v>6</v>
@@ -1301,11 +1283,9 @@
       <c r="A8" s="1">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
